--- a/output/2017-09-01 to 2017-10-01.xlsx
+++ b/output/2017-09-01 to 2017-10-01.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -122,6 +122,9 @@
     <t>project</t>
   </si>
   <si>
+    <t>users</t>
+  </si>
+  <si>
     <t>2016-08-104-01</t>
   </si>
   <si>
@@ -138,6 +141,24 @@
   </si>
   <si>
     <t>2016-11-103-02</t>
+  </si>
+  <si>
+    <t>['Alex Hill']</t>
+  </si>
+  <si>
+    <t>['Arun Lakshmanan']</t>
+  </si>
+  <si>
+    <t>['Harshal Maske', 'Maske, Harshal Ramesh']</t>
+  </si>
+  <si>
+    <t>['Bo Liu', 'Jiyang Chen']</t>
+  </si>
+  <si>
+    <t>['Sierra Young', 'Karun Koppula']</t>
+  </si>
+  <si>
+    <t>['Xinke Deng']</t>
   </si>
   <si>
     <t>cfop_KWIAT</t>
@@ -928,13 +949,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
@@ -944,13 +965,16 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>42</v>
@@ -958,13 +982,16 @@
       <c r="D2">
         <v>30.54545454545455</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>38</v>
@@ -972,13 +999,16 @@
       <c r="D3">
         <v>27.63636363636364</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>27.5</v>
@@ -986,13 +1016,16 @@
       <c r="D4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>13</v>
@@ -1000,13 +1033,16 @@
       <c r="D5">
         <v>9.454545454545455</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -1014,19 +1050,25 @@
       <c r="D6">
         <v>8.727272727272727</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
         <v>3.636363636363636</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1058,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>84</v>
@@ -1072,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>55</v>
@@ -1086,7 +1128,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>38</v>
@@ -1100,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>13</v>
@@ -1114,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -1128,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>5</v>
